--- a/channel_weights/channel_weights_DD.xlsx
+++ b/channel_weights/channel_weights_DD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\channel_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47828C85-1266-4A74-9F31-39379D322CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14917455-82BB-4E9A-8667-B443042E6104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_driven_pcc" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -304,7 +302,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2756,7 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5B1B99-314B-40D4-B5DD-4E6F125CCEE5}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/channel_weights/channel_weights_DD.xlsx
+++ b/channel_weights/channel_weights_DD.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14917455-82BB-4E9A-8667-B443042E6104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76947E-36D1-468C-8029-67EE87C666F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_driven_pcc" sheetId="1" r:id="rId1"/>
     <sheet name="data_driven_plv" sheetId="3" r:id="rId2"/>
-    <sheet name="data_driven_mi" sheetId="4" r:id="rId3"/>
+    <sheet name="note" sheetId="5" r:id="rId3"/>
+    <sheet name="data_driven_mi" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="66">
   <si>
     <t>labels</t>
   </si>
@@ -231,6 +232,10 @@
   </si>
   <si>
     <t>CB2</t>
+  </si>
+  <si>
+    <t>All of the channel weights in this file calculated from .mat features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -295,10 +300,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,13 +591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,64 +613,65 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.75933747930349405</v>
+        <v>0.25675399999999998</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>0.98969831408518805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.33349800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.79779946938957402</v>
+        <v>0.26815600000000001</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>0.9872803671332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.33312900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.74352018925552998</v>
+        <v>0.24951799999999999</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>0.98655764456891604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.33296399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.79473130259570701</v>
+        <v>0.26575399999999999</v>
       </c>
       <c r="C5">
         <v>61</v>
@@ -668,15 +680,15 @@
         <v>64</v>
       </c>
       <c r="E5">
-        <v>0.97107282686068597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.32866800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.65567547546699001</v>
+        <v>0.23075799999999999</v>
       </c>
       <c r="C6">
         <v>58</v>
@@ -685,15 +697,15 @@
         <v>58</v>
       </c>
       <c r="E6">
-        <v>0.96810779191677798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.32730999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.420786105305896</v>
+        <v>0.162602</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -702,15 +714,15 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <v>0.94513776910881198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.31828899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.642002125409319</v>
+        <v>0.22777</v>
       </c>
       <c r="C8">
         <v>56</v>
@@ -719,15 +731,15 @@
         <v>46</v>
       </c>
       <c r="E8">
-        <v>0.936375215688247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.31710300000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.671038886702921</v>
+        <v>0.233624</v>
       </c>
       <c r="C9">
         <v>49</v>
@@ -736,15 +748,15 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>0.93247697756924797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.31399899999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.72839959366295504</v>
+        <v>0.24648200000000001</v>
       </c>
       <c r="C10">
         <v>51</v>
@@ -753,15 +765,15 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>0.92741770962831505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.31325700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.69812215819379497</v>
+        <v>0.23447499999999999</v>
       </c>
       <c r="C11">
         <v>41</v>
@@ -770,92 +782,92 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0.91526863208083498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.31322800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.69786878221067505</v>
+        <v>0.23698</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>0.90584175975601799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.30284699999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.75088869959526805</v>
+        <v>0.25172</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>0.89908655630287804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.30282799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
-        <v>0.780640043716615</v>
+        <v>0.25926100000000002</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>0.88199228915044703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.30160399999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.81895557075112102</v>
+        <v>0.27267400000000003</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>0.88197147848769497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.29974400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.81329908129502704</v>
+        <v>0.27663199999999999</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0.88107848761539098</v>
+        <v>0.29769800000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,16 +875,16 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.77517204140903495</v>
+        <v>0.26608500000000002</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>0.87813626748663998</v>
+        <v>0.29682999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -880,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.71308507801224696</v>
+        <v>0.24382000000000001</v>
       </c>
       <c r="C18">
         <v>39</v>
@@ -889,7 +901,7 @@
         <v>42</v>
       </c>
       <c r="E18">
-        <v>0.86333104513359704</v>
+        <v>0.29242299999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -897,16 +909,16 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.64428217498628204</v>
+        <v>0.21759600000000001</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>0.85867675696408796</v>
+        <v>0.29182200000000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -914,16 +926,16 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.52285078045465805</v>
+        <v>0.17899899999999999</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>0.85690623813731603</v>
+        <v>0.29077700000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -931,7 +943,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.63516772418770795</v>
+        <v>0.21427599999999999</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -940,7 +952,7 @@
         <v>49</v>
       </c>
       <c r="E21">
-        <v>0.83504420944360502</v>
+        <v>0.28079700000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -948,16 +960,16 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>0.73087443150220499</v>
+        <v>0.24640899999999999</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>0.81949690454981805</v>
+        <v>0.27707500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -965,16 +977,16 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>0.79487249533322801</v>
+        <v>0.26818700000000001</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>0.81895557075112102</v>
+        <v>0.27674599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -982,16 +994,16 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.81949690454981805</v>
+        <v>0.27674599999999999</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E24">
-        <v>0.818041232643962</v>
+        <v>0.27663199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -999,16 +1011,16 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>0.76888314285204595</v>
+        <v>0.26561000000000001</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>0.81329908129502704</v>
+        <v>0.27267400000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,16 +1028,16 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.818041232643962</v>
+        <v>0.27707500000000002</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>0.79779946938957402</v>
+        <v>0.26860699999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1033,7 +1045,7 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>0.699318354433345</v>
+        <v>0.23616699999999999</v>
       </c>
       <c r="C27">
         <v>21</v>
@@ -1042,7 +1054,7 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>0.79487249533322801</v>
+        <v>0.26818700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,16 +1062,16 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>0.56888062515280502</v>
+        <v>0.192525</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>0.79473130259570701</v>
+        <v>0.26815600000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,16 +1079,16 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>0.42758237658537201</v>
+        <v>0.14612</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>0.78406788531896898</v>
+        <v>0.26608500000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1084,16 +1096,16 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>0.60333836955829401</v>
+        <v>0.20104900000000001</v>
       </c>
       <c r="C30">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>0.78239785599966305</v>
+        <v>0.26575399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,16 +1113,16 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.70619969260450399</v>
+        <v>0.237958</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>0.780640043716615</v>
+        <v>0.26561000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,16 +1130,16 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>0.83504420944360502</v>
+        <v>0.28079700000000002</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>0.77517204140903495</v>
+        <v>0.26410499999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,16 +1147,16 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>0.78406788531896898</v>
+        <v>0.26410499999999998</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>0.76888314285204595</v>
+        <v>0.26106299999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,16 +1164,16 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>0.85867675696408796</v>
+        <v>0.29077700000000001</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E34">
-        <v>0.76843126033482101</v>
+        <v>0.25926100000000002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.88199228915044703</v>
+        <v>0.29974400000000001</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1178,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>0.75933747930349405</v>
+        <v>0.25675399999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.75193787171654702</v>
+        <v>0.25363999999999998</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -1195,7 +1207,7 @@
         <v>31</v>
       </c>
       <c r="E36">
-        <v>0.75193787171654702</v>
+        <v>0.25363999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1203,7 +1215,7 @@
         <v>53</v>
       </c>
       <c r="B37">
-        <v>0.61481323081311001</v>
+        <v>0.207899</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -1212,7 +1224,7 @@
         <v>22</v>
       </c>
       <c r="E37">
-        <v>0.75088869959526805</v>
+        <v>0.25172</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,7 +1232,7 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>0.44881416370141602</v>
+        <v>0.15278</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1229,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>0.74352018925552998</v>
+        <v>0.24951799999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="B39">
-        <v>0.56013992939681401</v>
+        <v>0.189495</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1246,7 +1258,7 @@
         <v>38</v>
       </c>
       <c r="E39">
-        <v>0.73979831737808599</v>
+        <v>0.24817900000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,16 +1266,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.73979831737808599</v>
+        <v>0.24817900000000001</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>0.73087443150220499</v>
+        <v>0.24648200000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,16 +1283,16 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.86333104513359704</v>
+        <v>0.29242299999999999</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E41">
-        <v>0.72839959366295504</v>
+        <v>0.24640899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,16 +1300,16 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>0.90584175975601799</v>
+        <v>0.30282799999999999</v>
       </c>
       <c r="C42">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E42">
-        <v>0.71323081466340998</v>
+        <v>0.24382000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>0.91526863208083498</v>
+        <v>0.31322800000000001</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>0.71308507801224696</v>
+        <v>0.24304700000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1322,7 +1334,7 @@
         <v>34</v>
       </c>
       <c r="B44">
-        <v>0.87813626748663998</v>
+        <v>0.29769800000000002</v>
       </c>
       <c r="C44">
         <v>29</v>
@@ -1331,7 +1343,7 @@
         <v>43</v>
       </c>
       <c r="E44">
-        <v>0.70619969260450399</v>
+        <v>0.237958</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,16 +1351,16 @@
         <v>21</v>
       </c>
       <c r="B45">
-        <v>0.76843126033482101</v>
+        <v>0.26106299999999999</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>0.699318354433345</v>
+        <v>0.23698</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,16 +1368,16 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>0.54558301010028398</v>
+        <v>0.19716</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>0.69812215819379497</v>
+        <v>0.23616699999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,16 +1385,16 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.55366672624223101</v>
+        <v>0.18749199999999999</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>0.69786878221067505</v>
+        <v>0.23447499999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,7 +1402,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.58860496734566603</v>
+        <v>0.20249200000000001</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1399,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="E48">
-        <v>0.671038886702921</v>
+        <v>0.233624</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1407,7 +1419,7 @@
         <v>17</v>
       </c>
       <c r="B49">
-        <v>0.71323081466340998</v>
+        <v>0.24304700000000001</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1416,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <v>0.65567547546699001</v>
+        <v>0.23075799999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1424,16 +1436,16 @@
         <v>29</v>
       </c>
       <c r="B50">
-        <v>0.85690623813731603</v>
+        <v>0.29182200000000003</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>0.64428217498628204</v>
+        <v>0.22777</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1441,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="B51">
-        <v>0.93247697756924797</v>
+        <v>0.31399899999999997</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E51">
-        <v>0.642002125409319</v>
+        <v>0.21759600000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,7 +1470,7 @@
         <v>48</v>
       </c>
       <c r="B52">
-        <v>0.94513776910881198</v>
+        <v>0.31828899999999999</v>
       </c>
       <c r="C52">
         <v>19</v>
@@ -1467,7 +1479,7 @@
         <v>25</v>
       </c>
       <c r="E52">
-        <v>0.63516772418770795</v>
+        <v>0.21427599999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,7 +1487,7 @@
         <v>40</v>
       </c>
       <c r="B53">
-        <v>0.92741770962831505</v>
+        <v>0.31325700000000001</v>
       </c>
       <c r="C53">
         <v>35</v>
@@ -1484,7 +1496,7 @@
         <v>53</v>
       </c>
       <c r="E53">
-        <v>0.61481323081311001</v>
+        <v>0.207899</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,16 +1504,16 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.88197147848769497</v>
+        <v>0.29682999999999998</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E54">
-        <v>0.60333836955829401</v>
+        <v>0.20249200000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,16 +1521,16 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.78239785599966305</v>
+        <v>0.26860699999999998</v>
       </c>
       <c r="C55">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E55">
-        <v>0.58860496734566603</v>
+        <v>0.20104900000000001</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,16 +1538,16 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.89908655630287804</v>
+        <v>0.30160399999999998</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E56">
-        <v>0.56888062515280502</v>
+        <v>0.19716</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,16 +1555,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.88107848761539098</v>
+        <v>0.30284699999999998</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>0.56013992939681401</v>
+        <v>0.192525</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,16 +1572,16 @@
         <v>46</v>
       </c>
       <c r="B58">
-        <v>0.936375215688247</v>
+        <v>0.31710300000000002</v>
       </c>
       <c r="C58">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>0.55366672624223101</v>
+        <v>0.189495</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,16 +1589,16 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>0.98655764456891604</v>
+        <v>0.33312900000000001</v>
       </c>
       <c r="C59">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E59">
-        <v>0.54558301010028398</v>
+        <v>0.18749199999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1594,7 +1606,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.96810779191677798</v>
+        <v>0.32730999999999999</v>
       </c>
       <c r="C60">
         <v>18</v>
@@ -1603,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>0.52285078045465805</v>
+        <v>0.17899899999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,16 +1623,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9872803671332</v>
+        <v>0.33349800000000002</v>
       </c>
       <c r="C61">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>0.44881416370141602</v>
+        <v>0.162602</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1628,16 +1640,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.98969831408518805</v>
+        <v>0.33296399999999998</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E62">
-        <v>0.42758237658537201</v>
+        <v>0.15278</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,16 +1657,16 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.97107282686068597</v>
+        <v>0.32866800000000002</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>0.420786105305896</v>
+        <v>0.14612</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.12229107438204</v>
+        <v>0.376832</v>
       </c>
       <c r="C2">
         <v>59</v>
@@ -1703,7 +1715,7 @@
         <v>59</v>
       </c>
       <c r="E2">
-        <v>1.3062187791335</v>
+        <v>0.43733300000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1711,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.1560477162865599</v>
+        <v>0.38688</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -1720,7 +1732,7 @@
         <v>62</v>
       </c>
       <c r="E3">
-        <v>1.3057261637992701</v>
+        <v>0.43626799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1728,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.11494327924531</v>
+        <v>0.37292199999999998</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -1737,7 +1749,7 @@
         <v>61</v>
       </c>
       <c r="E4">
-        <v>1.29665619051478</v>
+        <v>0.43209999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1745,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.1980335254996399</v>
+        <v>0.39964100000000002</v>
       </c>
       <c r="C5">
         <v>58</v>
@@ -1754,7 +1766,7 @@
         <v>58</v>
       </c>
       <c r="E5">
-        <v>1.29077716942344</v>
+        <v>0.431033</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1762,7 +1774,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.11802718932551</v>
+        <v>0.380052</v>
       </c>
       <c r="C6">
         <v>51</v>
@@ -1771,7 +1783,7 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>1.27076004025657</v>
+        <v>0.42499599999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1779,16 +1791,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.92245870840329802</v>
+        <v>0.31832300000000002</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>1.26915127605234</v>
+        <v>0.42494700000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1796,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1.0719492085548901</v>
+        <v>0.36469000000000001</v>
       </c>
       <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
       <c r="E8">
-        <v>1.26875282991159</v>
+        <v>0.42476900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1813,16 +1825,16 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1.16301755802385</v>
+        <v>0.39202199999999998</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>1.2670839170608299</v>
+        <v>0.42445500000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1830,16 +1842,16 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1.24031082250901</v>
+        <v>0.415441</v>
       </c>
       <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
       <c r="E10">
-        <v>1.2642335477490301</v>
+        <v>0.42445100000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1847,16 +1859,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.2395205888435099</v>
+        <v>0.412688</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E11">
-        <v>1.2635646065842601</v>
+        <v>0.42265900000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1864,16 +1876,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1.2225472053387301</v>
+        <v>0.40960200000000002</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>1.2600733598615901</v>
+        <v>0.42248799999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1881,16 +1893,16 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>1.22095103589307</v>
+        <v>0.407252</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>1.25954593508057</v>
+        <v>0.42146899999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1898,7 +1910,7 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>1.1628085029812401</v>
+        <v>0.38772000000000001</v>
       </c>
       <c r="C14">
         <v>48</v>
@@ -1907,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>1.24737833193304</v>
+        <v>0.41836400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1915,7 +1927,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>1.11943441603782</v>
+        <v>0.37180999999999997</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1924,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>1.24031082250901</v>
+        <v>0.415441</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1932,16 +1944,16 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>1.1069604503805299</v>
+        <v>0.37250899999999998</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>1.2395205888435099</v>
+        <v>0.413136</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1949,7 +1961,7 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>1.15077992061006</v>
+        <v>0.387818</v>
       </c>
       <c r="C17">
         <v>49</v>
@@ -1958,7 +1970,7 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.2337315008796801</v>
+        <v>0.41275000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1966,16 +1978,16 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>1.1973291044851999</v>
+        <v>0.40023999999999998</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>1.2328798903107101</v>
+        <v>0.412688</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,7 +1995,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>1.2192440147013901</v>
+        <v>0.40742699999999998</v>
       </c>
       <c r="C19">
         <v>39</v>
@@ -1992,7 +2004,7 @@
         <v>42</v>
       </c>
       <c r="E19">
-        <v>1.22306416336434</v>
+        <v>0.41026299999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2000,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>1.17828163505068</v>
+        <v>0.394339</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -2009,7 +2021,7 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1.2225472053387301</v>
+        <v>0.40960200000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2017,16 +2029,16 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1.2112393757564699</v>
+        <v>0.40304000000000001</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1.22095103589307</v>
+        <v>0.409466</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2034,16 +2046,16 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>1.2011028992882</v>
+        <v>0.40097899999999997</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>1.22088206280322</v>
+        <v>0.40924700000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2051,16 +2063,16 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>1.1675133684666099</v>
+        <v>0.390204</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>1.2200477325782499</v>
+        <v>0.40829300000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2068,7 +2080,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>1.1107623700054801</v>
+        <v>0.37197599999999997</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -2077,7 +2089,7 @@
         <v>33</v>
       </c>
       <c r="E24">
-        <v>1.2192440147013901</v>
+        <v>0.40742699999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,16 +2097,16 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>1.0867872438458901</v>
+        <v>0.36668299999999998</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>1.2141956013392901</v>
+        <v>0.407252</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2102,7 +2114,7 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>1.15935972052186</v>
+        <v>0.38874599999999998</v>
       </c>
       <c r="C26">
         <v>46</v>
@@ -2111,7 +2123,7 @@
         <v>47</v>
       </c>
       <c r="E26">
-        <v>1.2116307612481501</v>
+        <v>0.40629700000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2119,16 +2131,16 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>1.1733301908728699</v>
+        <v>0.39252700000000001</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>1.2112393757564699</v>
+        <v>0.40498400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2136,16 +2148,16 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>1.1208129998958201</v>
+        <v>0.37573899999999999</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>1.20666954889648</v>
+        <v>0.40304000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,16 +2165,16 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>1.01943130267516</v>
+        <v>0.34500500000000001</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E29">
-        <v>1.2011028992882</v>
+        <v>0.40113700000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2170,16 +2182,16 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.12826160376186</v>
+        <v>0.375801</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>1.2010491316276399</v>
+        <v>0.40097899999999997</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2187,16 +2199,16 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>1.1702357056960999</v>
+        <v>0.391123</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E31">
-        <v>1.1980335254996399</v>
+        <v>0.40023999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,16 +2216,16 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>1.17829945825878</v>
+        <v>0.39502700000000002</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>1.1973291044851999</v>
+        <v>0.39964300000000003</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>1.0954730118521501</v>
+        <v>0.36663099999999998</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>1.1927293699538499</v>
+        <v>0.39964100000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2238,16 +2250,16 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>1.14913382122334</v>
+        <v>0.38435200000000003</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>1.19246739005117</v>
+        <v>0.39912999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,16 +2267,16 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>1.20666954889648</v>
+        <v>0.40498400000000001</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E35">
-        <v>1.1909459325129499</v>
+        <v>0.39752900000000002</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2272,7 +2284,7 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>1.1909459325129499</v>
+        <v>0.39912999999999998</v>
       </c>
       <c r="C36">
         <v>30</v>
@@ -2281,7 +2293,7 @@
         <v>49</v>
       </c>
       <c r="E36">
-        <v>1.17829945825878</v>
+        <v>0.39502700000000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,7 +2301,7 @@
         <v>53</v>
       </c>
       <c r="B37">
-        <v>1.1316749104757</v>
+        <v>0.37908399999999998</v>
       </c>
       <c r="C37">
         <v>18</v>
@@ -2298,7 +2310,7 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>1.17828163505068</v>
+        <v>0.394339</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2306,7 +2318,7 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>0.99387784638786403</v>
+        <v>0.32643800000000001</v>
       </c>
       <c r="C38">
         <v>25</v>
@@ -2315,7 +2327,7 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>1.1733301908728699</v>
+        <v>0.39252700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2323,16 +2335,16 @@
         <v>23</v>
       </c>
       <c r="B39">
-        <v>1.13069952380824</v>
+        <v>0.37854900000000002</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>1.1702357056960999</v>
+        <v>0.39202199999999998</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2340,16 +2352,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.2010491316276399</v>
+        <v>0.40113700000000002</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E40">
-        <v>1.1675133684666099</v>
+        <v>0.391123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2357,16 +2369,16 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1.22306416336434</v>
+        <v>0.41026299999999999</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>1.16301755802385</v>
+        <v>0.390204</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2374,16 +2386,16 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>1.19246739005117</v>
+        <v>0.39752900000000002</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>1.1628085029812401</v>
+        <v>0.38874599999999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2391,16 +2403,16 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>1.2141956013392901</v>
+        <v>0.40829300000000002</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>1.15935972052186</v>
+        <v>0.38807900000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2408,16 +2420,16 @@
         <v>34</v>
       </c>
       <c r="B44">
-        <v>1.2328798903107101</v>
+        <v>0.413136</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>1.1560477162865599</v>
+        <v>0.387818</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2425,16 +2437,16 @@
         <v>21</v>
       </c>
       <c r="B45">
-        <v>1.22088206280322</v>
+        <v>0.409466</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>1.15077992061006</v>
+        <v>0.38772000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2442,16 +2454,16 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>1.13368308297106</v>
+        <v>0.38807900000000001</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>1.14913382122334</v>
+        <v>0.38688</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2459,16 +2471,16 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1.1927293699538499</v>
+        <v>0.39964300000000003</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>1.13368308297106</v>
+        <v>0.38435200000000003</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2476,16 +2488,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.2116307612481501</v>
+        <v>0.40629700000000002</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>1.1316749104757</v>
+        <v>0.380052</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2493,16 +2505,16 @@
         <v>17</v>
       </c>
       <c r="B49">
-        <v>1.2200477325782499</v>
+        <v>0.40924700000000003</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E49">
-        <v>1.13069952380824</v>
+        <v>0.37908399999999998</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2510,16 +2522,16 @@
         <v>29</v>
       </c>
       <c r="B50">
-        <v>1.24737833193304</v>
+        <v>0.41836400000000001</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>1.12826160376186</v>
+        <v>0.37854900000000002</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2527,7 +2539,7 @@
         <v>27</v>
       </c>
       <c r="B51">
-        <v>1.2337315008796801</v>
+        <v>0.41275000000000001</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2536,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>1.12229107438204</v>
+        <v>0.376832</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2544,16 +2556,16 @@
         <v>48</v>
       </c>
       <c r="B52">
-        <v>1.2670839170608299</v>
+        <v>0.42248799999999997</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E52">
-        <v>1.1208129998958201</v>
+        <v>0.375801</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2561,16 +2573,16 @@
         <v>40</v>
       </c>
       <c r="B53">
-        <v>1.27076004025657</v>
+        <v>0.42499599999999998</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>1.11943441603782</v>
+        <v>0.37573899999999999</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,16 +2590,16 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>1.26915127605234</v>
+        <v>0.42445500000000003</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>1.11802718932551</v>
+        <v>0.37292199999999998</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2595,16 +2607,16 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1.2635646065842601</v>
+        <v>0.42476900000000001</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>1.11494327924531</v>
+        <v>0.37250899999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2612,7 +2624,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>1.29665619051478</v>
+        <v>0.43209999999999998</v>
       </c>
       <c r="C56">
         <v>22</v>
@@ -2621,7 +2633,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1.1107623700054801</v>
+        <v>0.37197599999999997</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2629,16 +2641,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1.25954593508057</v>
+        <v>0.42445100000000002</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>1.1069604503805299</v>
+        <v>0.37180999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2646,16 +2658,16 @@
         <v>46</v>
       </c>
       <c r="B58">
-        <v>1.26875282991159</v>
+        <v>0.42494700000000002</v>
       </c>
       <c r="C58">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>1.0954730118521501</v>
+        <v>0.36668299999999998</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2663,16 +2675,16 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1.2642335477490301</v>
+        <v>0.42265900000000001</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>1.0867872438458901</v>
+        <v>0.36663099999999998</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,7 +2692,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.29077716942344</v>
+        <v>0.431033</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -2689,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="E60">
-        <v>1.0719492085548901</v>
+        <v>0.36469000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2697,7 +2709,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.3062187791335</v>
+        <v>0.43733300000000003</v>
       </c>
       <c r="C61">
         <v>27</v>
@@ -2706,7 +2718,7 @@
         <v>45</v>
       </c>
       <c r="E61">
-        <v>1.01943130267516</v>
+        <v>0.34500500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2714,7 +2726,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1.3057261637992701</v>
+        <v>0.43626799999999999</v>
       </c>
       <c r="C62">
         <v>36</v>
@@ -2723,7 +2735,7 @@
         <v>54</v>
       </c>
       <c r="E62">
-        <v>0.99387784638786403</v>
+        <v>0.32643800000000001</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2731,7 +2743,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1.2600733598615901</v>
+        <v>0.42146899999999998</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -2740,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="E63">
-        <v>0.92245870840329802</v>
+        <v>0.31832300000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2751,6 +2763,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B620FD3B-743B-4D94-B385-D72ECDF4971B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5B1B99-314B-40D4-B5DD-4E6F125CCEE5}">
   <dimension ref="A1:E63"/>
   <sheetViews>

--- a/channel_weights/channel_weights_DD.xlsx
+++ b/channel_weights/channel_weights_DD.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76947E-36D1-468C-8029-67EE87C666F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C12C9-8CC3-45D4-BC55-79393D1B9075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_driven_pcc" sheetId="1" r:id="rId1"/>
-    <sheet name="data_driven_plv" sheetId="3" r:id="rId2"/>
-    <sheet name="note" sheetId="5" r:id="rId3"/>
-    <sheet name="data_driven_mi" sheetId="4" r:id="rId4"/>
+    <sheet name="data_driven_pcc_10_15" sheetId="6" r:id="rId2"/>
+    <sheet name="data_driven_plv" sheetId="3" r:id="rId3"/>
+    <sheet name="data_driven_plv_10_15" sheetId="7" r:id="rId4"/>
+    <sheet name="note" sheetId="5" r:id="rId5"/>
+    <sheet name="data_driven_mi" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="66">
   <si>
     <t>labels</t>
   </si>
@@ -305,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -593,7 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1677,6 +1681,535 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1415E-EBB6-4F36-ABF0-67F796A4CA5A}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.249641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.26261400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.24157400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.26073299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.22905700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.14924599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.225466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.23155000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.24221999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.23189599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.233932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.242058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.24723999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0.26020300000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>0.26909699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0.26703700000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>0.243868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.21575800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.17974000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0.21110200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0.23844899999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>0.25573000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>0.26657799999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.263656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>0.27544000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0.244617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>0.19852800000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>0.153502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>0.20170399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0.23489499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>0.27512999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0.25923200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0.29493200000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>0.30816300000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>0.264816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>0.22054099999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>0.15639500000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>0.19278600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.24321000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.28931899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0.29747800000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0.31353799999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>0.30628899999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>0.27013399999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>0.19536600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>0.19006899999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.207456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>0.24488699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>0.288518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>0.31049500000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>0.321384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>0.31620300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>0.302199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.27460099999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.30053400000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>0.30250500000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>0.31845299999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>0.333789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.32922200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.33274599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>0.33463799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.33296599999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465C75D6-FABC-4D7F-8E58-9F886D79D10D}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -2762,11 +3295,539 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D395BE9-FFC1-425A-8EDF-BBEF0FF60502}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.37108999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.38134600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.365846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.39534200000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.37804900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.31047999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.36234899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.38880300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.41098099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.41159099999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.40803899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.40093299999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.37942799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0.36105999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>0.36604999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0.38819100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>0.39605499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.40167900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.39377200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0.40021600000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0.39650600000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>0.38270199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>0.36249100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.363678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>0.38564100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0.38682699999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>0.36928699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>0.34297499999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>0.37282100000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0.38638099999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>0.38961899999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0.36115199999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0.38515899999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>0.40785300000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>0.39518599999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>0.37401200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>0.32931199999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>0.37696400000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.39575500000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.406194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0.39196199999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0.40708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>0.41677599999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>0.41082299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>0.384828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>0.398256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.40599099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>0.40843800000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>0.41481699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>0.40920099999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>0.42463499999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>0.427707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>0.42827599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.42735699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.43208600000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>0.42469499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>0.42440499999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>0.42429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.433589</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.43664599999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>0.43768800000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.42272799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B620FD3B-743B-4D94-B385-D72ECDF4971B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -2800,7 +3861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5B1B99-314B-40D4-B5DD-4E6F125CCEE5}">
   <dimension ref="A1:E63"/>
   <sheetViews>
